--- a/dev/doc/spec_design.xlsx
+++ b/dev/doc/spec_design.xlsx
@@ -10,13 +10,14 @@
     <sheet name="基本画面" sheetId="1" r:id="rId1"/>
     <sheet name="状態と画面表示" sheetId="3" r:id="rId2"/>
     <sheet name="状態遷移" sheetId="2" r:id="rId3"/>
+    <sheet name="モデル設計" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>○</t>
     <phoneticPr fontId="2"/>
@@ -396,6 +397,198 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデル構成</t>
+    <rPh sb="3" eb="5">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>点灯
+要求</t>
+    <rPh sb="0" eb="2">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>点灯
+設定</t>
+    <rPh sb="0" eb="2">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手動点灯
+指示</t>
+    <rPh sb="0" eb="2">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>点灯
+指示</t>
+    <rPh sb="0" eb="2">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前輪
+ブレーキ状態</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンリン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後輪
+ブレーキ状態</t>
+    <rPh sb="0" eb="2">
+      <t>コウリン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>統合
+ブレーキ状態</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージパス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考：</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ブレーキ状態とライトンの点灯状態は、1つの画面/ウィジェットに
+　表示される。
+　そのため、1つのモデルの中で管理する。</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前輪ブレーキ
+ピン</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンリン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後輪ブレーキ
+ピン</t>
+    <rPh sb="0" eb="2">
+      <t>コウリン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>点灯要求
+ピン</t>
+    <rPh sb="0" eb="2">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>点灯指示
+ピン</t>
+    <rPh sb="0" eb="2">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Qtモデルの設計(メイン画面の表示)</t>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -440,7 +633,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -543,11 +736,310 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -599,6 +1091,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,6 +1160,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -21324,1032 +21904,1032 @@
       </c>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
     </row>
     <row r="5" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
     </row>
     <row r="6" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="20"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="43"/>
     </row>
     <row r="7" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
     </row>
     <row r="8" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="43"/>
+      <c r="AN8" s="43"/>
+      <c r="AO8" s="43"/>
     </row>
     <row r="9" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="43"/>
     </row>
     <row r="10" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="43"/>
+      <c r="AO10" s="43"/>
     </row>
     <row r="11" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="43"/>
+      <c r="AN11" s="43"/>
+      <c r="AO11" s="43"/>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="43"/>
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="43"/>
+      <c r="AN12" s="43"/>
+      <c r="AO12" s="43"/>
     </row>
     <row r="13" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="43"/>
+      <c r="AK13" s="43"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="43"/>
+      <c r="AO13" s="43"/>
     </row>
     <row r="14" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="20"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="20"/>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="20"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="43"/>
+      <c r="AL14" s="43"/>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="43"/>
+      <c r="AO14" s="43"/>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="20"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="20"/>
-      <c r="AL15" s="20"/>
-      <c r="AM15" s="20"/>
-      <c r="AN15" s="20"/>
-      <c r="AO15" s="20"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="43"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="43"/>
+      <c r="AK15" s="43"/>
+      <c r="AL15" s="43"/>
+      <c r="AM15" s="43"/>
+      <c r="AN15" s="43"/>
+      <c r="AO15" s="43"/>
     </row>
     <row r="16" spans="2:41" x14ac:dyDescent="0.15">
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="20"/>
-      <c r="AI16" s="20"/>
-      <c r="AJ16" s="20"/>
-      <c r="AK16" s="20"/>
-      <c r="AL16" s="20"/>
-      <c r="AM16" s="20"/>
-      <c r="AN16" s="20"/>
-      <c r="AO16" s="20"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="43"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="43"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="43"/>
+      <c r="AJ16" s="43"/>
+      <c r="AK16" s="43"/>
+      <c r="AL16" s="43"/>
+      <c r="AM16" s="43"/>
+      <c r="AN16" s="43"/>
+      <c r="AO16" s="43"/>
     </row>
     <row r="17" spans="4:41" x14ac:dyDescent="0.15">
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="43"/>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="43"/>
+      <c r="AJ17" s="43"/>
+      <c r="AK17" s="43"/>
+      <c r="AL17" s="43"/>
+      <c r="AM17" s="43"/>
+      <c r="AN17" s="43"/>
+      <c r="AO17" s="43"/>
     </row>
     <row r="18" spans="4:41" x14ac:dyDescent="0.15">
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="20"/>
-      <c r="AJ18" s="20"/>
-      <c r="AK18" s="20"/>
-      <c r="AL18" s="20"/>
-      <c r="AM18" s="20"/>
-      <c r="AN18" s="20"/>
-      <c r="AO18" s="20"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="43"/>
+      <c r="AH18" s="43"/>
+      <c r="AI18" s="43"/>
+      <c r="AJ18" s="43"/>
+      <c r="AK18" s="43"/>
+      <c r="AL18" s="43"/>
+      <c r="AM18" s="43"/>
+      <c r="AN18" s="43"/>
+      <c r="AO18" s="43"/>
     </row>
     <row r="19" spans="4:41" x14ac:dyDescent="0.15">
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="20"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="20"/>
-      <c r="AN19" s="20"/>
-      <c r="AO19" s="20"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="43"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="43"/>
+      <c r="AJ19" s="43"/>
+      <c r="AK19" s="43"/>
+      <c r="AL19" s="43"/>
+      <c r="AM19" s="43"/>
+      <c r="AN19" s="43"/>
+      <c r="AO19" s="43"/>
     </row>
     <row r="20" spans="4:41" x14ac:dyDescent="0.15">
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="20"/>
-      <c r="AN20" s="20"/>
-      <c r="AO20" s="20"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="43"/>
+      <c r="AH20" s="43"/>
+      <c r="AI20" s="43"/>
+      <c r="AJ20" s="43"/>
+      <c r="AK20" s="43"/>
+      <c r="AL20" s="43"/>
+      <c r="AM20" s="43"/>
+      <c r="AN20" s="43"/>
+      <c r="AO20" s="43"/>
     </row>
     <row r="21" spans="4:41" x14ac:dyDescent="0.15">
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="20"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="43"/>
+      <c r="AK21" s="43"/>
+      <c r="AL21" s="43"/>
+      <c r="AM21" s="43"/>
+      <c r="AN21" s="43"/>
+      <c r="AO21" s="43"/>
     </row>
     <row r="22" spans="4:41" x14ac:dyDescent="0.15">
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20"/>
-      <c r="AN22" s="20"/>
-      <c r="AO22" s="20"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="43"/>
+      <c r="AI22" s="43"/>
+      <c r="AJ22" s="43"/>
+      <c r="AK22" s="43"/>
+      <c r="AL22" s="43"/>
+      <c r="AM22" s="43"/>
+      <c r="AN22" s="43"/>
+      <c r="AO22" s="43"/>
     </row>
     <row r="23" spans="4:41" x14ac:dyDescent="0.15">
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="20"/>
-      <c r="AI23" s="20"/>
-      <c r="AJ23" s="20"/>
-      <c r="AK23" s="20"/>
-      <c r="AL23" s="20"/>
-      <c r="AM23" s="20"/>
-      <c r="AN23" s="20"/>
-      <c r="AO23" s="20"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43"/>
     </row>
     <row r="24" spans="4:41" x14ac:dyDescent="0.15">
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
-      <c r="AI24" s="20"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="20"/>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="20"/>
-      <c r="AN24" s="20"/>
-      <c r="AO24" s="20"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="43"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="43"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="43"/>
+      <c r="AI24" s="43"/>
+      <c r="AJ24" s="43"/>
+      <c r="AK24" s="43"/>
+      <c r="AL24" s="43"/>
+      <c r="AM24" s="43"/>
+      <c r="AN24" s="43"/>
+      <c r="AO24" s="43"/>
     </row>
     <row r="25" spans="4:41" x14ac:dyDescent="0.15">
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
-      <c r="AH25" s="20"/>
-      <c r="AI25" s="20"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="20"/>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="20"/>
-      <c r="AN25" s="20"/>
-      <c r="AO25" s="20"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="43"/>
+      <c r="AJ25" s="43"/>
+      <c r="AK25" s="43"/>
+      <c r="AL25" s="43"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="43"/>
+      <c r="AO25" s="43"/>
     </row>
     <row r="26" spans="4:41" x14ac:dyDescent="0.15">
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="20"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="43"/>
+      <c r="AG26" s="43"/>
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="43"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="43"/>
+      <c r="AL26" s="43"/>
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="43"/>
+      <c r="AO26" s="43"/>
     </row>
     <row r="27" spans="4:41" x14ac:dyDescent="0.15">
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="20"/>
-      <c r="AH27" s="20"/>
-      <c r="AI27" s="20"/>
-      <c r="AJ27" s="20"/>
-      <c r="AK27" s="20"/>
-      <c r="AL27" s="20"/>
-      <c r="AM27" s="20"/>
-      <c r="AN27" s="20"/>
-      <c r="AO27" s="20"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="43"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="43"/>
+      <c r="AL27" s="43"/>
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="43"/>
+      <c r="AO27" s="43"/>
     </row>
     <row r="28" spans="4:41" x14ac:dyDescent="0.15">
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="43"/>
+      <c r="AH28" s="43"/>
+      <c r="AI28" s="43"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="43"/>
+      <c r="AM28" s="43"/>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="43"/>
     </row>
     <row r="29" spans="4:41" x14ac:dyDescent="0.15">
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="20"/>
-      <c r="AJ29" s="20"/>
-      <c r="AK29" s="20"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20"/>
-      <c r="AN29" s="20"/>
-      <c r="AO29" s="20"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="43"/>
     </row>
     <row r="30" spans="4:41" x14ac:dyDescent="0.15">
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="20"/>
-      <c r="AI30" s="20"/>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="20"/>
-      <c r="AM30" s="20"/>
-      <c r="AN30" s="20"/>
-      <c r="AO30" s="20"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="43"/>
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="43"/>
+      <c r="AM30" s="43"/>
+      <c r="AN30" s="43"/>
+      <c r="AO30" s="43"/>
     </row>
     <row r="32" spans="4:41" x14ac:dyDescent="0.15">
       <c r="D32" s="2" t="s">
@@ -22454,12 +23034,12 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="15"/>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G5" s="16" t="s">
@@ -22476,7 +23056,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="44" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -22488,7 +23068,7 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="2:10" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="21"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="18" t="s">
         <v>16</v>
       </c>
@@ -22498,7 +23078,7 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="2:10" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="21"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="18" t="s">
         <v>17</v>
       </c>
@@ -22508,7 +23088,7 @@
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="2:10" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="21"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="18" t="s">
         <v>18</v>
       </c>
@@ -25325,4 +25905,181 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="2" style="14"/>
+    <col min="7" max="7" width="2.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="2" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="19"/>
+      <c r="H4" s="20">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21">
+        <v>2</v>
+      </c>
+      <c r="K4" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="G6" s="24">
+        <v>1</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="G7" s="24">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="G8" s="24">
+        <v>3</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="25">
+        <v>4</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G11" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G12" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G12:K15"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>